--- a/excercises/excercises/40.MF choke.xlsx
+++ b/excercises/excercises/40.MF choke.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr updateLinks="always" codeName="Workbook_Choke" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F89991-2559-45C7-85C4-DECBE3EB20BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A560E-F22C-4D62-AAF6-10D17509E444}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13425" yWindow="2145" windowWidth="21930" windowHeight="17160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choke" sheetId="118" r:id="rId1"/>
@@ -1614,7 +1614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="374139712"/>
@@ -1728,7 +1728,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="374139136"/>
@@ -1770,7 +1770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1800,7 +1800,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2660,27 +2660,27 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="11" max="12" width="10.1328125" customWidth="1"/>
-    <col min="13" max="14" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="32" width="9.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2689,20 +2689,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
         <v>38</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
         <v>39</v>
       </c>
@@ -2844,13 +2844,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>16</v>
       </c>
@@ -2872,14 +2872,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>14</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
         <v>15</v>
       </c>
@@ -2901,16 +2901,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="29" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -2930,15 +2930,15 @@
       <c r="S23" s="29"/>
       <c r="T23" s="29"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
         <v>8</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
         <v>23</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
         <v>25</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C30" s="23" t="str">
         <v>Pout, atma</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>cfChoke</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
         <v>26</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="26" t="s">
         <v>27</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="23" t="str">
         <v>Pin, atma</v>
       </c>
@@ -3093,13 +3093,13 @@
         <v>cfChoke</v>
       </c>
     </row>
-    <row r="35" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7">
         <f t="array" ref="C37:G38">[1]!MF_cf_choke_fr(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
         <v>0.91248689024634433</v>
@@ -3117,7 +3117,7 @@
         <v>0.91248689024634433</v>
       </c>
     </row>
-    <row r="38" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="25" t="str">
         <v>cor fact</v>
       </c>
@@ -3134,13 +3134,13 @@
         <v>cfChoke_fr</v>
       </c>
     </row>
-    <row r="39" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="24">
         <f t="array" ref="C41:G42">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C37,PVTstr_)</f>
         <v>10.000000000000005</v>
@@ -3158,7 +3158,7 @@
         <v>0.91248689024634433</v>
       </c>
     </row>
-    <row r="42" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C42" s="24" t="str">
         <v>Qliq</v>
       </c>
@@ -3175,20 +3175,20 @@
         <v>cfChoke</v>
       </c>
     </row>
-    <row r="43" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C48" s="30" t="s">
         <v>8</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="M48" s="30"/>
       <c r="N48" s="30"/>
     </row>
-    <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
         <v>17</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>1</v>
       </c>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>10</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>20</v>
       </c>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>30</v>
       </c>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>40</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>50</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>87.40234375</v>
       </c>
     </row>
-    <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
@@ -3576,7 +3576,7 @@
       <c r="G56" s="5"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
@@ -3584,7 +3584,7 @@
       <c r="G57" s="5"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
@@ -3592,7 +3592,7 @@
       <c r="G58" s="5"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
@@ -3600,7 +3600,7 @@
       <c r="G59" s="5"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
@@ -3608,7 +3608,7 @@
       <c r="G60" s="5"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
@@ -3616,7 +3616,7 @@
       <c r="G61" s="5"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
@@ -3624,7 +3624,7 @@
       <c r="G62" s="5"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
@@ -3632,7 +3632,7 @@
       <c r="G63" s="5"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
@@ -3640,7 +3640,7 @@
       <c r="G64" s="5"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
@@ -3648,7 +3648,7 @@
       <c r="G65" s="5"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
@@ -3656,7 +3656,7 @@
       <c r="G66" s="5"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
@@ -3664,7 +3664,7 @@
       <c r="G67" s="5"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
@@ -3672,7 +3672,7 @@
       <c r="G68" s="5"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
@@ -3680,7 +3680,7 @@
       <c r="G69" s="5"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
@@ -3688,7 +3688,7 @@
       <c r="G70" s="5"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
@@ -3696,7 +3696,7 @@
       <c r="G71" s="5"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
@@ -3704,7 +3704,7 @@
       <c r="G72" s="5"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
@@ -3712,7 +3712,7 @@
       <c r="G73" s="5"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
@@ -3720,7 +3720,7 @@
       <c r="G74" s="5"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C48:N48"/>

--- a/excercises/excercises/40.MF choke.xlsx
+++ b/excercises/excercises/40.MF choke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A560E-F22C-4D62-AAF6-10D17509E444}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EFDB28-05FF-4666-A456-7438A60E9BAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="2145" windowWidth="21930" windowHeight="17160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choke" sheetId="118" r:id="rId1"/>
@@ -892,37 +892,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0098876953125</c:v>
+                  <c:v>1.009857177734375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.328125</c:v>
+                  <c:v>2.3203125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6484375</c:v>
+                  <c:v>4.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.96875</c:v>
+                  <c:v>6.90625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.265625</c:v>
+                  <c:v>9.15625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.5625</c:v>
+                  <c:v>11.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.84375</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.8125</c:v>
+                  <c:v>31.9375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.4375</c:v>
+                  <c:v>41.0625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.625</c:v>
+                  <c:v>57.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.125</c:v>
+                  <c:v>70.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,37 +1003,37 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.001049041748047</c:v>
+                  <c:v>10.001020431518555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.10528564453125</c:v>
+                  <c:v>10.1025390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.42724609375</c:v>
+                  <c:v>10.4150390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.97900390625</c:v>
+                  <c:v>10.947265625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.787109375</c:v>
+                  <c:v>11.728515625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.890625</c:v>
+                  <c:v>12.7734375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.8515625</c:v>
+                  <c:v>22.03125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.828125</c:v>
+                  <c:v>31.9140625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.453125</c:v>
+                  <c:v>41.0546875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.6875</c:v>
+                  <c:v>57.1875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.125</c:v>
+                  <c:v>70.234375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,37 +1114,37 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.000557899475098</c:v>
+                  <c:v>20.000526905059814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.05584716796875</c:v>
+                  <c:v>20.05279541015625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.224609375</c:v>
+                  <c:v>20.211181640625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.50537109375</c:v>
+                  <c:v>20.47607421875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.9033203125</c:v>
+                  <c:v>20.849609375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.4208984375</c:v>
+                  <c:v>21.3330078125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.9375</c:v>
+                  <c:v>25.44921875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.9453125</c:v>
+                  <c:v>32.34375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.453125</c:v>
+                  <c:v>41.0546875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.6875</c:v>
+                  <c:v>57.1875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.125</c:v>
+                  <c:v>70.234375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,37 +1249,37 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.000395178794861</c:v>
+                  <c:v>30.000362992286682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.039596557617188</c:v>
+                  <c:v>30.036163330078125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.15838623046875</c:v>
+                  <c:v>30.1446533203125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.3570556640625</c:v>
+                  <c:v>30.325927734375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.6353759765625</c:v>
+                  <c:v>30.57861328125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.992431640625</c:v>
+                  <c:v>30.904541015625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.013671875</c:v>
+                  <c:v>33.6181640625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.140625</c:v>
+                  <c:v>38.02734375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.2890625</c:v>
+                  <c:v>43.88671875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.6875</c:v>
+                  <c:v>57.5390625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.0859375</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,37 +1360,37 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.000314712524414</c:v>
+                  <c:v>40.000280141830444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.03143310546875</c:v>
+                  <c:v>40.027999877929688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.125732421875</c:v>
+                  <c:v>40.1116943359375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.283203125</c:v>
+                  <c:v>40.25146484375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.5029296875</c:v>
+                  <c:v>40.44677734375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.7861328125</c:v>
+                  <c:v>40.6982421875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.154296875</c:v>
+                  <c:v>42.763671875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.08984375</c:v>
+                  <c:v>46.1328125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.5390625</c:v>
+                  <c:v>50.5859375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.953125</c:v>
+                  <c:v>61.5625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.671875</c:v>
+                  <c:v>73.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,37 +1471,37 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.00026673078537</c:v>
+                  <c:v>50.000230967998505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.026702880859375</c:v>
+                  <c:v>50.023078918457031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.1068115234375</c:v>
+                  <c:v>50.092315673828125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.23956298828125</c:v>
+                  <c:v>50.20751953125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.42572021484375</c:v>
+                  <c:v>50.36773681640625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.665283203125</c:v>
+                  <c:v>50.57373046875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.6611328125</c:v>
+                  <c:v>52.276611328125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.95703125</c:v>
+                  <c:v>55.029296875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.498046875</c:v>
+                  <c:v>58.69140625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.65625</c:v>
+                  <c:v>68.017578125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87.40234375</c:v>
+                  <c:v>78.3203125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +2058,7 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
-      <definedName name="MF_cf_choke_fr"/>
+      <definedName name="MF_calibr_choke_fr"/>
       <definedName name="MF_dp_choke_atm"/>
       <definedName name="MF_p_choke_atma"/>
       <definedName name="MF_qliq_choke_sm3day"/>
@@ -2660,8 +2660,8 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C23" s="29" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -2943,7 +2943,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>22</v>
@@ -2966,19 +2966,19 @@
       </c>
       <c r="C29" s="23">
         <f t="array" ref="C29:G30">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>25.955368041992188</v>
+        <v>25.73895263671875</v>
       </c>
       <c r="D29" s="23">
         <v>26</v>
       </c>
       <c r="E29" s="23">
-        <v>25.955368041992188</v>
+        <v>25.73895263671875</v>
       </c>
       <c r="F29" s="23">
         <v>30</v>
       </c>
       <c r="G29" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>28</v>
@@ -2986,13 +2986,13 @@
       <c r="J29" s="32"/>
       <c r="K29" s="7">
         <f t="array" ref="K29:M30">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>4.46319580078125E-2</v>
+        <v>0.26104736328125</v>
       </c>
       <c r="L29" s="7">
         <v>30</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -3009,7 +3009,7 @@
         <v>Tchoke_C</v>
       </c>
       <c r="G30" s="23" t="str">
-        <v>cfChoke_fr</v>
+        <v>c_calibr_fr</v>
       </c>
       <c r="K30" s="7" t="str">
         <v>dP_atm</v>
@@ -3018,7 +3018,7 @@
         <v>Tchoke_C</v>
       </c>
       <c r="M30" s="7" t="str">
-        <v>cfChoke</v>
+        <v>c_calibr_fr</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -3026,7 +3026,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>24</v>
@@ -3038,19 +3038,19 @@
       </c>
       <c r="C33" s="23">
         <f t="array" ref="C33:G34">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>2.328125</v>
+        <v>6.396484375</v>
       </c>
       <c r="D33" s="23">
-        <v>2.328125</v>
+        <v>6.396484375</v>
       </c>
       <c r="E33" s="23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33" s="23">
         <v>30</v>
       </c>
       <c r="G33" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>28</v>
@@ -3058,13 +3058,13 @@
       <c r="J33" s="30"/>
       <c r="K33" s="7">
         <f t="array" ref="K33:M34">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>1.328125</v>
+        <v>1.396484375</v>
       </c>
       <c r="L33" s="7">
         <v>30</v>
       </c>
       <c r="M33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
@@ -3081,7 +3081,7 @@
         <v>Tchoke_C</v>
       </c>
       <c r="G34" s="23" t="str">
-        <v>cfChoke_fr</v>
+        <v>c_calibr_fr</v>
       </c>
       <c r="K34" s="24" t="str">
         <v>dP_atm</v>
@@ -3090,7 +3090,7 @@
         <v>Tchoke_C</v>
       </c>
       <c r="M34" s="24" t="str">
-        <v>cfChoke</v>
+        <v>c_calibr_fr</v>
       </c>
     </row>
     <row r="35" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -3101,25 +3101,25 @@
     </row>
     <row r="37" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7">
-        <f t="array" ref="C37:G38">[1]!MF_cf_choke_fr(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
-        <v>0.91248689024634433</v>
+        <f t="array" ref="C37:G38">[1]!MF_calibr_choke_fr(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
+        <v>0.20889911495164873</v>
       </c>
       <c r="D37" s="25">
         <v>26</v>
       </c>
       <c r="E37" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37" s="25">
         <v>30</v>
       </c>
       <c r="G37" s="7">
-        <v>0.91248689024634433</v>
+        <v>0.20889911495164873</v>
       </c>
     </row>
     <row r="38" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="25" t="str">
-        <v>cor fact</v>
+        <v>c_calibr_fr</v>
       </c>
       <c r="D38" s="25" t="str">
         <v>p_intake_atma</v>
@@ -3131,7 +3131,7 @@
         <v>Tchoke_C</v>
       </c>
       <c r="G38" s="25" t="str">
-        <v>cfChoke_fr</v>
+        <v>c_calibr_fr</v>
       </c>
     </row>
     <row r="39" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -3143,19 +3143,19 @@
     <row r="41" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="24">
         <f t="array" ref="C41:G42">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C37,PVTstr_)</f>
-        <v>10.000000000000005</v>
+        <v>24.999999999999996</v>
       </c>
       <c r="D41" s="24">
         <v>26</v>
       </c>
       <c r="E41" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F41" s="24">
         <v>30</v>
       </c>
       <c r="G41" s="7">
-        <v>0.91248689024634433</v>
+        <v>0.20889911495164873</v>
       </c>
     </row>
     <row r="42" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3172,7 +3172,7 @@
         <v>Tchoke_C</v>
       </c>
       <c r="G42" s="24" t="str">
-        <v>cfChoke</v>
+        <v>c_calibr_fr</v>
       </c>
     </row>
     <row r="43" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -3250,52 +3250,52 @@
         <v>1</v>
       </c>
       <c r="C50" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>1</v>
       </c>
       <c r="D50" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>1.0098876953125</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>1.009857177734375</v>
       </c>
       <c r="E50" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>2.328125</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>2.3203125</v>
       </c>
       <c r="F50" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>4.6484375</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>4.625</v>
       </c>
       <c r="G50" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>6.96875</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>6.90625</v>
       </c>
       <c r="H50" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>9.265625</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>9.15625</v>
       </c>
       <c r="I50" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>11.5625</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.375</v>
       </c>
       <c r="J50" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>22.84375</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>22</v>
       </c>
       <c r="K50" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>33.8125</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.9375</v>
       </c>
       <c r="L50" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>44.4375</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.0625</v>
       </c>
       <c r="M50" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>64.625</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>57.125</v>
       </c>
       <c r="N50" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>83.125</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B50,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>70.25</v>
       </c>
       <c r="O50" s="3"/>
     </row>
@@ -3304,52 +3304,52 @@
         <v>10</v>
       </c>
       <c r="C51" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>10</v>
       </c>
       <c r="D51" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>10.001049041748047</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.001020431518555</v>
       </c>
       <c r="E51" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>10.10528564453125</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.1025390625</v>
       </c>
       <c r="F51" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>10.42724609375</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.4150390625</v>
       </c>
       <c r="G51" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>10.97900390625</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>10.947265625</v>
       </c>
       <c r="H51" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>11.787109375</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>11.728515625</v>
       </c>
       <c r="I51" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>12.890625</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>12.7734375</v>
       </c>
       <c r="J51" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>22.8515625</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>22.03125</v>
       </c>
       <c r="K51" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>33.828125</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>31.9140625</v>
       </c>
       <c r="L51" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>44.453125</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.0546875</v>
       </c>
       <c r="M51" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>64.6875</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>57.1875</v>
       </c>
       <c r="N51" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>83.125</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B51,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>70.234375</v>
       </c>
       <c r="O51" s="3"/>
     </row>
@@ -3358,52 +3358,52 @@
         <v>20</v>
       </c>
       <c r="C52" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20</v>
       </c>
       <c r="D52" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>20.000557899475098</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.000526905059814</v>
       </c>
       <c r="E52" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>20.05584716796875</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.05279541015625</v>
       </c>
       <c r="F52" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>20.224609375</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.211181640625</v>
       </c>
       <c r="G52" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>20.50537109375</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.47607421875</v>
       </c>
       <c r="H52" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>20.9033203125</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>20.849609375</v>
       </c>
       <c r="I52" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>21.4208984375</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>21.3330078125</v>
       </c>
       <c r="J52" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>25.9375</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>25.44921875</v>
       </c>
       <c r="K52" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>33.9453125</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>32.34375</v>
       </c>
       <c r="L52" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>44.453125</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>41.0546875</v>
       </c>
       <c r="M52" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>64.6875</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>57.1875</v>
       </c>
       <c r="N52" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>83.125</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B52,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>70.234375</v>
       </c>
       <c r="O52" s="3"/>
     </row>
@@ -3412,52 +3412,52 @@
         <v>30</v>
       </c>
       <c r="C53" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30</v>
       </c>
       <c r="D53" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>30.000395178794861</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.000362992286682</v>
       </c>
       <c r="E53" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>30.039596557617188</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.036163330078125</v>
       </c>
       <c r="F53" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>30.15838623046875</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.1446533203125</v>
       </c>
       <c r="G53" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>30.3570556640625</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.325927734375</v>
       </c>
       <c r="H53" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>30.6353759765625</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.57861328125</v>
       </c>
       <c r="I53" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>30.992431640625</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>30.904541015625</v>
       </c>
       <c r="J53" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>34.013671875</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>33.6181640625</v>
       </c>
       <c r="K53" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>39.140625</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>38.02734375</v>
       </c>
       <c r="L53" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>46.2890625</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>43.88671875</v>
       </c>
       <c r="M53" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>64.6875</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>57.5390625</v>
       </c>
       <c r="N53" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>83.0859375</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B53,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>70.3125</v>
       </c>
       <c r="O53" s="3"/>
     </row>
@@ -3466,52 +3466,52 @@
         <v>40</v>
       </c>
       <c r="C54" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>40</v>
       </c>
       <c r="D54" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>40.000314712524414</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.000280141830444</v>
       </c>
       <c r="E54" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>40.03143310546875</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.027999877929688</v>
       </c>
       <c r="F54" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>40.125732421875</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.1116943359375</v>
       </c>
       <c r="G54" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>40.283203125</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.25146484375</v>
       </c>
       <c r="H54" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>40.5029296875</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.44677734375</v>
       </c>
       <c r="I54" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>40.7861328125</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>40.6982421875</v>
       </c>
       <c r="J54" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>43.154296875</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>42.763671875</v>
       </c>
       <c r="K54" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>47.08984375</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>46.1328125</v>
       </c>
       <c r="L54" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>52.5390625</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>50.5859375</v>
       </c>
       <c r="M54" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>66.953125</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>61.5625</v>
       </c>
       <c r="N54" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>83.671875</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B54,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>73.125</v>
       </c>
       <c r="O54" s="3"/>
     </row>
@@ -3520,52 +3520,52 @@
         <v>50</v>
       </c>
       <c r="C55" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>50</v>
       </c>
       <c r="D55" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>50.00026673078537</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>50.000230967998505</v>
       </c>
       <c r="E55" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>50.026702880859375</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>50.023078918457031</v>
       </c>
       <c r="F55" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>50.1068115234375</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>50.092315673828125</v>
       </c>
       <c r="G55" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>50.23956298828125</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>50.20751953125</v>
       </c>
       <c r="H55" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>50.42572021484375</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>50.36773681640625</v>
       </c>
       <c r="I55" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>50.665283203125</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>50.57373046875</v>
       </c>
       <c r="J55" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>52.6611328125</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>52.276611328125</v>
       </c>
       <c r="K55" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>55.95703125</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>55.029296875</v>
       </c>
       <c r="L55" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>60.498046875</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>58.69140625</v>
       </c>
       <c r="M55" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>72.65625</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>68.017578125</v>
       </c>
       <c r="N55" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>87.40234375</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B55,0,d_pipe,T_choke,,PVTstr_)</f>
+        <v>78.3203125</v>
       </c>
     </row>
     <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">

--- a/excercises/excercises/40.MF choke.xlsx
+++ b/excercises/excercises/40.MF choke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EFDB28-05FF-4666-A456-7438A60E9BAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EEB8A0-C07B-4AED-B5F5-B02AECCD05A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2661,7 +2661,7 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
